--- a/500all/speech_level/speeches_CHRG-114hhrg96049.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,15 +52,9 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I call to order this joint hearing of the European, Eurasian, Emerging Threat Subcommittee and the Subcommittee on Africa, Global Health, Global Human Rights, and International Organizations for this afternoon's hearing on issues dealing with clean water, sanitation, and the world.    And I want to thank my fellow members here before I give an opening statement on my part. Thank you both for the contributions you have made to this hearing, but also to this issue over the years. You have both demonstrated such a high level of morality and concern for fellow human beings that will, in and of themselves, those concepts and as part of your soul, will serve our country well in the long run in terms we do what is right. We do what is good for the world in these ways, and make it a better world, it is clearly going to have very positive feedback and blowback on the United States, rather than negative blowback when all we rely on is weapons and trying to get things done by sending troops in the last minute to calm a situation down. So I want to thank you both for your moral and long-term thinking.    Throughout recent hearings, the Europe and Eurasian Subcommittee has explored international water cooperation and discussed examples where water disputes between nations has led to increased tensions. And today we will be discussing water from the point of view of human security.    Access to clean water is absolutely essential to each and every human being. That is why estimates that potentially billions of people in the coming decades will be living in water-stressed areas of the world. So this is a very troubling observation and prediction. Without access to water and the implications that it holds for personal hygiene, agriculture, industry, far too many people will be forced to accept lower standards of living. As Members of Congress concerned with foreign policy, we must think how this dynamic may spark conflicts over natural resources or destabilize very fragile governments.    But this is not only a question for the future. It is a problem of today. This year, we know hundreds of thousands of children will needlessly die from diseases caused by a lack of clean water, plus many more than those hundreds of thousands, many more will die from some disease that can be traced right back to a lack of clean water.    The toll in human suffering caused by a lack of water and dirty water is great, and I am sure witnesses here can explain those stories and how great a problem and challenge that it is.    Yet, I believe the challenges of access to clean water, hygiene, and sanitization can be conquered, and we now have it within our grip, technologically and with the amount of wealth available in our societies, to actually overcome this enormous challenge. Our government through USAID has spent over $3.5 billion over the last decade on programs to do just that; not to mention the efforts of our international partners and nongovernmental organizations.    I believe that as we continue to advance technologically and continue to have innovative ideas that we put into practice, that water scarcity can be managed and mitigated. Increasing human security when it comes to water access and hygiene will not only help improve the lives of these millions of vulnerable people, if not billions of people, but also serve as the strategic interest of the United States. If increasing access to clean water at the micro level helps people in communities to be secure, it follows that their governments will be better able to find solutions to international water disputes.    So without objection, all members will have 5 legislative days to submit additional questions and extraneous material.    But before that, I would like to start off with Mr. Blumenauer or Mr. Smith. Mr. Blumenauer has sort of been our partner on this and several other significant matters.    Mr. Blumenauer, would you enlighten us with an opening statement?</t>
   </si>
   <si>
-    <t>Blumenauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Blumenauer. Mr. Chairman, thank you. Thank you for the courtesy of permitting me to join you and Chairman Smith in this hearing, laying an important foundation. This has been an area of deep personal concern of mine. I have been pleased that in recent Congresses we have been able to get a couple of significant pieces of legislation to focus American foreign policy on water and sanitation. And I would say that there have been no two stronger champions in this bipartisan effort than the two of you. And so I am deeply appreciative of your leadership and your partnership, and it is truly an honor for me to join you.    You laid it out, Mr. Chairman. We have got some certified smart people here who can round out this picture who have been active in recent years. I have had a chance to meet some, and have a new acquaintance here. But the intersection of water, national security, and massive dilemmas in terms of human wellbeing, are significant. There are 261 waterways that cross international boundaries. In some cases, like the Danube, it is 19 countries in the heart of Europe.    An unsettling number of some of the largest rivers in the world no longer flow to the oceans in the course of a year. They are dry for some or all of that period. More than 40 percent of the world's population already lives in an area of physical water scarcity.    And competition is fierce. It is estimated that 20 percent more irrigation water is going to be needed in the next 10 years to keep agriculture going. The Pacific Institute in California has drawn up a list of conflicts in which water has played a part, and they have identified over 200, 204 such incidents where water figured into international conflict. And 61 of those incidents were recent. Looks like the problem is getting more serious, not less.    We have seen it in the Horn of Africa. Part of the chaos in Syria was the result of persistent drought that drove people out of the countryside and into cities where ill-prepared. The situation we are going to be facing in Yemen.    And I would say one area that I look forward to consulting with both of you is to see if we might be able to help focus the United States' efforts in Gaza. No matter what one thinks about the conflict there, we have almost 2 million people who are in an area that the water supply is not going to be, any of it, is going to be fit for human consumption within 2 years. And within less than 5 years, we think that that condition will become permanent. Maybe this is a little area that we could come together to try and deal in a humanitarian sense.    But let me just stop at this point. The National Intelligence Estimate points out that this is a serious issue of national security. You have got some of the best people here. I appreciate your leadership and focus and look forward to being your partner; maybe not on the committee, but maybe as an honorary member of your team. Thank you so very much.</t>
   </si>
   <si>
@@ -70,18 +64,12 @@
     <t>400380</t>
   </si>
   <si>
-    <t>Christopher H. Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Mr. Chairman. And it is indeed an honor to join you, Chairman Rohrabacher, and I thank you for your leadership on this extremely important issue.    And, Mr. Blumenauer, it is a delight to be with you again, and thank you for your legislation, which did become law, which I think is a landmark piece of legislation. It was very bipartisan, but you walked point, and I thank you for that extraordinary leadership as well.    Like you, Mr. Chairman, my subcommittee has had and held several hearings on health and water, and it is clear that without adequate supplies of clean drinking water and proper sanitation no health programming can succeed. Indeed, the World Health Organization estimates that because of a lack of access to safe drinking water and sanitation, more than 14,000 people die daily from water-borne illnesses which cause more than 1 billion cases of intestinal worms, 1.4 million child deaths each year from diarrhea, 860,000 child deaths each year from malnutrition, and 500,000 deaths from all age groups each year from malaria.    I note parenthetically that I have introduced legislation that we are really pushing hard to enact about neglected tropical diseases, and it would really take that whole issue to a new realm of prioritization and backing. But, again, without water, and without trying to address water needs, all of those efforts are stymied. And of course, that is integrated into our bill.    It is troubling that so many people in the world do not have ready access to water. The U.N. has estimated 2.6 billion people have gained access to safe drinking water over the last 25 years, but another 663 million continue to lack access as of this year. Nearly half of these people live in Africa, another fifth live in South Asia.    As we know, the U.N. Millennium Development Goals, the MDGs, included a target for access to safe drinking water and basic sanitation. According to the U.N., global goals for access for water are being met, but sanitation continues to be unmet. Of course, that is defined as having globally the proportion of people who are without sustainable access to safe drinking water and basic sanitation. So it is a movement in the right direction, but certainly not an achievement of universal access.    Over the past 10 years, the U.S. Government has spent $3.5 billion on water, sanitation, and hygiene, or WASH programming. Nevertheless, even after several water acts passed by Congress and great international effort to bring countries up to global WASH standards, U.S. programming still remains somewhat disjointed. According to the GAO study just being concluded, there is no uniform model that has been created for WASH programming. USAID was supposed to present a comprehensive plan for WASH programming this year, but none has been released as of this time.    Even if a model program were to be made adaptable to each country, by now there should be some overall strategy for how to design a program, monitor its progress, and evaluate its outcomes. In too many countries in which USAID operates WASH programs, there is no comprehensive program. Monitoring is limited and evaluation fails to adequately assess the statistics being provided by host governments.    The human cost of failure to provide adequate WASH programming is too high to allow substandard programming to continue. We will hear that there has been progress made, and this is indeed promising, but there is more that must be done. And, again, we have the experts here today to provide a road map to our committees as to how we should proceed.    I thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much.    Now we have three witnesses. I will be introducing the three of them. We will have testimony, and then we will have questions and answers for all three witnesses at the same time.    Let me suggest to the witnesses, if you can summarize in 5 minutes, that would be great and give us more time to have a bit of a dialogue on this.    We have three wonderful witnesses, as I say. John Oldfield is the CEO of WASH Advocates. And I am trying to guess, you have Water and Sanitation Health?</t>
   </si>
   <si>
-    <t>Oldfield</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Oldfield. Hygiene.</t>
   </si>
   <si>
@@ -100,18 +88,12 @@
     <t xml:space="preserve">    Mr. Rohrabacher. Mr. Bilodeau.</t>
   </si>
   <si>
-    <t>Bilodeau</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bilodeau. Thank you, Chairmen Rohrabacher and Smith and members of the subcommittee. I am Denis Bilodeau and I appear before you today as an elected member of the Board of Directors of the Orange County Water District. I am honored to appear before you to discuss global water scarcity. I will summarize my statement and request that it be submitted into the formal hearing record.    As background, the OCWD is located in the 48th Congressional District in Southern California. We provide groundwater to 19 cities and water agencies with a population of 2.4 million. OCWD has led the way in developing innovative water solutions across a range of technology and infrastructure.    In the late 1980s, we recognized that to preserve our region's economic vitality we needed to address groundwater depletion, seawater intrusion, and unreliable surface water supplies. We implemented an aggressive program to develop a water treatment process with our sister agency, which is the Orange County Sanitization District. This is called the Groundwater Replenishment System. This system takes treated wastewater from the Orange County Sanitation District--and when I say treated wastewater, I speak of sewage--that would otherwise be discharged into the Pacific Ocean. It implements a three-step advanced treatment process that consists of microfiltration, reverse osmosis, and ultraviolet light with hydrogen peroxide. This treatment and purification process produces high-quality water that exceeds all State and Federal drinking water standards and delivers enough water to serve 850,000 people with the production of 100 million gallons a day currently.    When we think about global water supply needs and the ways in which to reduce tensions that arise from constrained potable water supplies and the ability to share experiences, collaboration is important. OCWD shares its knowledge in advanced water purification technology.    For example, Singapore enhanced its water security using our experience and expertise. The country of Singapore has been principally reliant on water from Malaysia. With political differences between the nations, and the expiration of long-term agreements for water transfers between Malaysia and Singapore, the Public Utility Board of Singapore was tasked with finding ways to make Singapore more water self-sufficient. The Singapore PUB reached out to us to learn about technology that our district was using to purify wastewater and put it back into the groundwater supplies. Water leaders from Singapore visited us to see what we were doing to recycle and purify wastewater and to see how we were communicating with the public to bolster public support for potable reuse.    Working with us, Singapore developed both purified water, which they call NEWater, and seawater desalinization to diversify their portfolio of available water for sources for the drinking water system, as well as to protect against depletion of their reserves during drought or interruption of imported supplies. Singapore also built a secondary system to enable it to serve high purity water to its high-tech customers, such as wafer fabricators and circuit board manufacturers that require highly purified water.    This system of water distribution helped to make Singapore a desirable place for valuable industrial customers and to help locate manufacturing facilities.    In 2014, the Orange County Water District was presented with the Lee Kuan Yew Water Prize for our efforts toward solving the world's water problems by applying innovative technology solutions.    We are proud to serve as a global water leader in the water industry, and at the same time it is just a start. Greater investments must be made to implement similar projects around the world. We must continue to create opportunities for water experts to engage with one another and to exchange information to keep pushing the envelope and develop new and innovative solutions to global water problems.    The Singapore-Orange County Water District collaboration is an example of how American technology transfer can lead to solutions for global water supply and quality needs for regions around the world. Again, the Orange County Water District greatly appreciates the subcommittee's decision to explore this important national and international water security matter. Thank you very much for having me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Mr. Whittington.</t>
   </si>
   <si>
-    <t>Whittington</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Whittington. Mr. Chairman, just by chance, I just got back from 7 weeks in Singapore and had the privilege of seeing these facilities that Denis has just described. So everything he is saying is true here. I just was at the Lee Kuan Yew School.    Thank you very much for the invitation to speak today on the role of improved water and sanitation services and avoiding conflict and building economic prosperity. I would like to make three points in my testimony.    First, there is good news from the public health field. Thanks in part to the efforts of the United States and the international community, childhood mortality rates are declining in developing countries and the rate of decline is accelerating. And as we look ahead over the next few decades, economic growth should enable East Asia, Southeast Asia, Latin America to solve their water supply and sanitation problems and thankfully water-related mortality will be a thing of the past in these regions. The remaining challenges are going be to be in South Asia and Sub-Saharan Africa, but even here childhood diarrhea and mortality rates are falling rapidly.    However, the economic benefits from investments in water and sanitation infrastructure consist of both health and nonhealth outcomes, and Denis has just described some of the nonhealth outcomes in Singapore. There is a shift occurring in the relative magnitude of these two components with the health benefits declining and the nonhealth benefits, such as time savings, increasing.    The nonhealth related benefits of improved water services vary depending on location, but they can be surprisingly large and are often increasing. For example, in a recent study conducted in Kathmandu, Nepal, researchers at the Institute of Water Policy at the National University of Singapore found that from 2001 to 2014 the real cost after adjusting for inflation that households were incurring coping with water shortages and intermittent contaminated supplies actually doubled from $7 a month to $14 a month on average. These coping costs include the value of time spent collecting water from outside the home, investments in water storage, in-house water treatment, and expenditures to water vendors, all of which most Americans never experience.    Investments in improved water services that reduce or eliminate these coping costs free up a household's time, just as John just mentioned, and money for other priorities and increase economic growth. It is really hard for an urban economy to function efficiently if everyone is worried about getting home from work to meet a tanker truck in order to have sufficient water for a week.    I think that this shift from health to nonhealth benefits has important implications for donor assistance in the WASH sector. In places where coping costs are high, one can be confident that the economic benefits of improved water supplies will also be very high. But the coping costs are not high everywhere, and careful economic analysis of water and sanitation infrastructure projects is needed to ensure that assistance is targeted to communities where it will have the greatest economic impact. This will also go a large way to reducing conflict. The best way to avoid conflict is for a country to get on a high-growth development path.    My second point is that the world's population is becoming increasingly urbanized and the largest economic benefits of improved water and sanitation infrastructure usually will be in cities in developing countries. So if the objective is to promote economic growth, then it is important to prioritize investments in urban areas.    Large economic benefits can be obtained not only from infrastructure investment, but also from policy reforms. Utilities in cities in low- and middle-income countries almost always provide water and sanitation services to customers far below cost. They rely on subsidies from higher-level governments and donors to pay these subsidies. And recent research has shown that these subsidies are very poorly targeted. The majority don't reach poor households.    For my third point I want to shift from the economic benefits of water and sanitation investments to the relationship between water and conflict on international rivers. I know this subcommittee has heard from Paul Sullivan and his testimony on the implications of the Grand Renaissance Dam in Ethiopia. However, I have been studying and writing about the Nile for almost 40 years, and I would be happy to answer any further questions you have about the situation that is emerging on the Nile. I would like to just say a few last things and comments on that situation.    The construction of the Grand Ethiopian Renaissance Dam started in 2011 on the Blue Nile near the Ethiopian-Sudanese border. It is now about 40 percent complete. When it is finished the Nile riparians and the global community will face a new situation in transboundary hydropolitics. There will be two very large dams, the Aswan High Dam and the GERD, with over-year storage capacity on the same river in different countries in a water-scarce basin, and there is presently no plan for coordinating the operation of those large storage facilities.    In my judgment, the Nile riparians need assistance from the international community immediately in reaching a fair, equitable agreement on the joint operation of the Aswan High Dam and the GERD based on best global practices. This is a matter of urgency. Ethiopia will likely begin filling the GERD in 2016, just next year.    So in summary, I have four recommendations. First, in order to promote economic growth, assistance in the water supply and sanitation sector should be focused on South Asia and Sub-Saharan African cities.    Second, if USAID wants water and sanitation investments with high economic returns, it should assist countries to do the economic analysis to identify where economic returns will be greatest. President Reagan's Executive Order 12291 required that all major regulations in the United States pass a cost-benefit test. Why not have USAID assistance to the water sector pass a similar test?    Third, the United States Agency for International Development's global water coordinator and the Department of State's special advisor for water resources should give high priority to the reform of municipal water pricing and tariffs in developing countries and to improve the targeting of available subsidies to poor households.    And finally, fourth, the United States Department of State should encourage international organizations such as the World Bank to reengage in the Nile mission. As I said, this is a matter of urgency for the international community.    Thank you very much.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>412672</t>
   </si>
   <si>
-    <t>Daniel M. Donovan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Donovan. No, Mr. Chairman. Thank you very much.</t>
   </si>
   <si>
@@ -272,9 +251,6 @@
   </si>
   <si>
     <t>412604</t>
-  </si>
-  <si>
-    <t>Curt Clawson</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming today. I have got two questions or comments that I would like you all to respond to, so I will throw them out one at a time.    So my district is--the southern tip is Marco Island. I have got the west tip of the Everglades, go up north along the coast, Naples, Bonita Springs, Fort Myers, Cabbage Key, great place. I think I have got the best district of all--wonderful, welcoming people, and I love it there. That is another conversation.    I am always concerned about diseases from mosquitos that come from water because we don't do well with drainage and pooling. And I am worried about that personally because I see chikungunya right around the corner. I see dengue fever right around the corner. It is all over the Caribbean, as far south as Brazil. And it just feels like it is knocking on our door and it is just a question of time.    And I am always worried about how we do with--you know, when I drive around my district, I am looking at a lot of pooling water and I compare that to the developing world where they don't do anything, particularly if it is a bad rainy season. And then you have 10 percent of the population of the world gets dengue fever; chikungunya is blowing up everywhere. We have this conversation today and until now I don't think anybody has even brought it up.    And I think of Southeast Asia and the rainy seasons there, and India. And, look, I am all with you on toilets and wells, but it feels like the global conversation about water sanitation and usability is behind the curve with respect to mosquitos because we beat malaria, which is a nocturnal, rural problem, and now we have chikungunya and dengue fever which is an urban, daytime problem.    So that is number one. Do we, as a country and as a globe, do we do any work on that?    The second thing is to Mr. Oldfield's comments, my experience in development in South America and Southeast Asia is that if folks are at risk a little bit, skin in the game--on the well or on the toilet, the septic system--however basic it is, that they tend to keep it up more. And that a lot of the 500,000 that are dying every year--I am a lot more open-minded to spending taxpayer money if the end user has skin in the game.    And that is not a conservative's way of saying I don't want to help, because we have all spent a big chunk of our life trying to help. But if the model makes everyone in the supply chain have skin in the game, then I think what I have seen is that we have better usage of the money.    So I would just ask you all's quick response to my two comments. First of all, if you think I am all wet on the mosquito thing, just tell me right up. And then, Mr. Oldfield, you can comment on the other one.</t>
@@ -718,11 +694,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -744,11 +718,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -770,11 +742,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -794,13 +764,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -822,11 +790,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -848,11 +814,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -874,11 +838,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -900,11 +862,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -926,11 +886,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -952,11 +910,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -978,11 +934,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1004,11 +958,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1030,11 +982,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1056,11 +1006,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1082,11 +1030,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1106,13 +1052,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1134,11 +1078,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1160,11 +1102,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1186,11 +1126,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1212,11 +1150,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1238,11 +1174,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1264,11 +1198,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>21</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1290,11 +1222,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>28</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1316,11 +1246,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1342,11 +1270,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>28</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1368,11 +1294,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1394,11 +1318,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1420,11 +1342,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1446,11 +1366,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1470,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1498,11 +1414,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>28</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1522,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1550,11 +1462,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1574,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1602,11 +1510,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1626,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1654,11 +1558,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1678,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1706,11 +1606,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1732,11 +1630,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>28</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1758,11 +1654,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1784,11 +1678,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1810,11 +1702,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>31</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1836,11 +1726,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1862,11 +1750,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1888,11 +1774,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>14</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1914,11 +1798,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1940,11 +1822,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1966,11 +1846,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1992,11 +1870,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2018,11 +1894,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2044,11 +1918,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2070,11 +1942,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2096,11 +1966,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>14</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2122,11 +1990,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2146,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G57" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2174,11 +2038,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2198,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2226,11 +2086,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2250,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G61" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2278,11 +2134,9 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2304,11 +2158,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>31</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2328,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" t="s">
-        <v>35</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2356,11 +2206,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2380,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2408,11 +2254,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2434,11 +2278,9 @@
       <c r="F68" t="s">
         <v>11</v>
       </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2458,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2486,11 +2326,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2510,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2538,11 +2374,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2562,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>86</v>
-      </c>
-      <c r="H73" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2590,11 +2422,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2614,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2642,11 +2470,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2666,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>85</v>
-      </c>
-      <c r="G77" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2694,11 +2518,9 @@
       <c r="F78" t="s">
         <v>11</v>
       </c>
-      <c r="G78" t="s">
-        <v>21</v>
-      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2718,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>85</v>
-      </c>
-      <c r="G79" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2746,11 +2566,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>21</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96049.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,9 +55,15 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. I call to order this joint hearing of the European, Eurasian, Emerging Threat Subcommittee and the Subcommittee on Africa, Global Health, Global Human Rights, and International Organizations for this afternoon's hearing on issues dealing with clean water, sanitation, and the world.    And I want to thank my fellow members here before I give an opening statement on my part. Thank you both for the contributions you have made to this hearing, but also to this issue over the years. You have both demonstrated such a high level of morality and concern for fellow human beings that will, in and of themselves, those concepts and as part of your soul, will serve our country well in the long run in terms we do what is right. We do what is good for the world in these ways, and make it a better world, it is clearly going to have very positive feedback and blowback on the United States, rather than negative blowback when all we rely on is weapons and trying to get things done by sending troops in the last minute to calm a situation down. So I want to thank you both for your moral and long-term thinking.    Throughout recent hearings, the Europe and Eurasian Subcommittee has explored international water cooperation and discussed examples where water disputes between nations has led to increased tensions. And today we will be discussing water from the point of view of human security.    Access to clean water is absolutely essential to each and every human being. That is why estimates that potentially billions of people in the coming decades will be living in water-stressed areas of the world. So this is a very troubling observation and prediction. Without access to water and the implications that it holds for personal hygiene, agriculture, industry, far too many people will be forced to accept lower standards of living. As Members of Congress concerned with foreign policy, we must think how this dynamic may spark conflicts over natural resources or destabilize very fragile governments.    But this is not only a question for the future. It is a problem of today. This year, we know hundreds of thousands of children will needlessly die from diseases caused by a lack of clean water, plus many more than those hundreds of thousands, many more will die from some disease that can be traced right back to a lack of clean water.    The toll in human suffering caused by a lack of water and dirty water is great, and I am sure witnesses here can explain those stories and how great a problem and challenge that it is.    Yet, I believe the challenges of access to clean water, hygiene, and sanitization can be conquered, and we now have it within our grip, technologically and with the amount of wealth available in our societies, to actually overcome this enormous challenge. Our government through USAID has spent over $3.5 billion over the last decade on programs to do just that; not to mention the efforts of our international partners and nongovernmental organizations.    I believe that as we continue to advance technologically and continue to have innovative ideas that we put into practice, that water scarcity can be managed and mitigated. Increasing human security when it comes to water access and hygiene will not only help improve the lives of these millions of vulnerable people, if not billions of people, but also serve as the strategic interest of the United States. If increasing access to clean water at the micro level helps people in communities to be secure, it follows that their governments will be better able to find solutions to international water disputes.    So without objection, all members will have 5 legislative days to submit additional questions and extraneous material.    But before that, I would like to start off with Mr. Blumenauer or Mr. Smith. Mr. Blumenauer has sort of been our partner on this and several other significant matters.    Mr. Blumenauer, would you enlighten us with an opening statement?</t>
   </si>
   <si>
+    <t>Blumenauer</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Blumenauer. Mr. Chairman, thank you. Thank you for the courtesy of permitting me to join you and Chairman Smith in this hearing, laying an important foundation. This has been an area of deep personal concern of mine. I have been pleased that in recent Congresses we have been able to get a couple of significant pieces of legislation to focus American foreign policy on water and sanitation. And I would say that there have been no two stronger champions in this bipartisan effort than the two of you. And so I am deeply appreciative of your leadership and your partnership, and it is truly an honor for me to join you.    You laid it out, Mr. Chairman. We have got some certified smart people here who can round out this picture who have been active in recent years. I have had a chance to meet some, and have a new acquaintance here. But the intersection of water, national security, and massive dilemmas in terms of human wellbeing, are significant. There are 261 waterways that cross international boundaries. In some cases, like the Danube, it is 19 countries in the heart of Europe.    An unsettling number of some of the largest rivers in the world no longer flow to the oceans in the course of a year. They are dry for some or all of that period. More than 40 percent of the world's population already lives in an area of physical water scarcity.    And competition is fierce. It is estimated that 20 percent more irrigation water is going to be needed in the next 10 years to keep agriculture going. The Pacific Institute in California has drawn up a list of conflicts in which water has played a part, and they have identified over 200, 204 such incidents where water figured into international conflict. And 61 of those incidents were recent. Looks like the problem is getting more serious, not less.    We have seen it in the Horn of Africa. Part of the chaos in Syria was the result of persistent drought that drove people out of the countryside and into cities where ill-prepared. The situation we are going to be facing in Yemen.    And I would say one area that I look forward to consulting with both of you is to see if we might be able to help focus the United States' efforts in Gaza. No matter what one thinks about the conflict there, we have almost 2 million people who are in an area that the water supply is not going to be, any of it, is going to be fit for human consumption within 2 years. And within less than 5 years, we think that that condition will become permanent. Maybe this is a little area that we could come together to try and deal in a humanitarian sense.    But let me just stop at this point. The National Intelligence Estimate points out that this is a serious issue of national security. You have got some of the best people here. I appreciate your leadership and focus and look forward to being your partner; maybe not on the committee, but maybe as an honorary member of your team. Thank you so very much.</t>
   </si>
   <si>
@@ -64,12 +73,21 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you very much, Mr. Chairman. And it is indeed an honor to join you, Chairman Rohrabacher, and I thank you for your leadership on this extremely important issue.    And, Mr. Blumenauer, it is a delight to be with you again, and thank you for your legislation, which did become law, which I think is a landmark piece of legislation. It was very bipartisan, but you walked point, and I thank you for that extraordinary leadership as well.    Like you, Mr. Chairman, my subcommittee has had and held several hearings on health and water, and it is clear that without adequate supplies of clean drinking water and proper sanitation no health programming can succeed. Indeed, the World Health Organization estimates that because of a lack of access to safe drinking water and sanitation, more than 14,000 people die daily from water-borne illnesses which cause more than 1 billion cases of intestinal worms, 1.4 million child deaths each year from diarrhea, 860,000 child deaths each year from malnutrition, and 500,000 deaths from all age groups each year from malaria.    I note parenthetically that I have introduced legislation that we are really pushing hard to enact about neglected tropical diseases, and it would really take that whole issue to a new realm of prioritization and backing. But, again, without water, and without trying to address water needs, all of those efforts are stymied. And of course, that is integrated into our bill.    It is troubling that so many people in the world do not have ready access to water. The U.N. has estimated 2.6 billion people have gained access to safe drinking water over the last 25 years, but another 663 million continue to lack access as of this year. Nearly half of these people live in Africa, another fifth live in South Asia.    As we know, the U.N. Millennium Development Goals, the MDGs, included a target for access to safe drinking water and basic sanitation. According to the U.N., global goals for access for water are being met, but sanitation continues to be unmet. Of course, that is defined as having globally the proportion of people who are without sustainable access to safe drinking water and basic sanitation. So it is a movement in the right direction, but certainly not an achievement of universal access.    Over the past 10 years, the U.S. Government has spent $3.5 billion on water, sanitation, and hygiene, or WASH programming. Nevertheless, even after several water acts passed by Congress and great international effort to bring countries up to global WASH standards, U.S. programming still remains somewhat disjointed. According to the GAO study just being concluded, there is no uniform model that has been created for WASH programming. USAID was supposed to present a comprehensive plan for WASH programming this year, but none has been released as of this time.    Even if a model program were to be made adaptable to each country, by now there should be some overall strategy for how to design a program, monitor its progress, and evaluate its outcomes. In too many countries in which USAID operates WASH programs, there is no comprehensive program. Monitoring is limited and evaluation fails to adequately assess the statistics being provided by host governments.    The human cost of failure to provide adequate WASH programming is too high to allow substandard programming to continue. We will hear that there has been progress made, and this is indeed promising, but there is more that must be done. And, again, we have the experts here today to provide a road map to our committees as to how we should proceed.    I thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much.    Now we have three witnesses. I will be introducing the three of them. We will have testimony, and then we will have questions and answers for all three witnesses at the same time.    Let me suggest to the witnesses, if you can summarize in 5 minutes, that would be great and give us more time to have a bit of a dialogue on this.    We have three wonderful witnesses, as I say. John Oldfield is the CEO of WASH Advocates. And I am trying to guess, you have Water and Sanitation Health?</t>
   </si>
   <si>
+    <t>Oldfield</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Oldfield. Hygiene.</t>
   </si>
   <si>
@@ -88,12 +106,18 @@
     <t xml:space="preserve">    Mr. Rohrabacher. Mr. Bilodeau.</t>
   </si>
   <si>
+    <t>Bilodeau</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bilodeau. Thank you, Chairmen Rohrabacher and Smith and members of the subcommittee. I am Denis Bilodeau and I appear before you today as an elected member of the Board of Directors of the Orange County Water District. I am honored to appear before you to discuss global water scarcity. I will summarize my statement and request that it be submitted into the formal hearing record.    As background, the OCWD is located in the 48th Congressional District in Southern California. We provide groundwater to 19 cities and water agencies with a population of 2.4 million. OCWD has led the way in developing innovative water solutions across a range of technology and infrastructure.    In the late 1980s, we recognized that to preserve our region's economic vitality we needed to address groundwater depletion, seawater intrusion, and unreliable surface water supplies. We implemented an aggressive program to develop a water treatment process with our sister agency, which is the Orange County Sanitization District. This is called the Groundwater Replenishment System. This system takes treated wastewater from the Orange County Sanitation District--and when I say treated wastewater, I speak of sewage--that would otherwise be discharged into the Pacific Ocean. It implements a three-step advanced treatment process that consists of microfiltration, reverse osmosis, and ultraviolet light with hydrogen peroxide. This treatment and purification process produces high-quality water that exceeds all State and Federal drinking water standards and delivers enough water to serve 850,000 people with the production of 100 million gallons a day currently.    When we think about global water supply needs and the ways in which to reduce tensions that arise from constrained potable water supplies and the ability to share experiences, collaboration is important. OCWD shares its knowledge in advanced water purification technology.    For example, Singapore enhanced its water security using our experience and expertise. The country of Singapore has been principally reliant on water from Malaysia. With political differences between the nations, and the expiration of long-term agreements for water transfers between Malaysia and Singapore, the Public Utility Board of Singapore was tasked with finding ways to make Singapore more water self-sufficient. The Singapore PUB reached out to us to learn about technology that our district was using to purify wastewater and put it back into the groundwater supplies. Water leaders from Singapore visited us to see what we were doing to recycle and purify wastewater and to see how we were communicating with the public to bolster public support for potable reuse.    Working with us, Singapore developed both purified water, which they call NEWater, and seawater desalinization to diversify their portfolio of available water for sources for the drinking water system, as well as to protect against depletion of their reserves during drought or interruption of imported supplies. Singapore also built a secondary system to enable it to serve high purity water to its high-tech customers, such as wafer fabricators and circuit board manufacturers that require highly purified water.    This system of water distribution helped to make Singapore a desirable place for valuable industrial customers and to help locate manufacturing facilities.    In 2014, the Orange County Water District was presented with the Lee Kuan Yew Water Prize for our efforts toward solving the world's water problems by applying innovative technology solutions.    We are proud to serve as a global water leader in the water industry, and at the same time it is just a start. Greater investments must be made to implement similar projects around the world. We must continue to create opportunities for water experts to engage with one another and to exchange information to keep pushing the envelope and develop new and innovative solutions to global water problems.    The Singapore-Orange County Water District collaboration is an example of how American technology transfer can lead to solutions for global water supply and quality needs for regions around the world. Again, the Orange County Water District greatly appreciates the subcommittee's decision to explore this important national and international water security matter. Thank you very much for having me.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Mr. Whittington.</t>
   </si>
   <si>
+    <t>Whittington</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Whittington. Mr. Chairman, just by chance, I just got back from 7 weeks in Singapore and had the privilege of seeing these facilities that Denis has just described. So everything he is saying is true here. I just was at the Lee Kuan Yew School.    Thank you very much for the invitation to speak today on the role of improved water and sanitation services and avoiding conflict and building economic prosperity. I would like to make three points in my testimony.    First, there is good news from the public health field. Thanks in part to the efforts of the United States and the international community, childhood mortality rates are declining in developing countries and the rate of decline is accelerating. And as we look ahead over the next few decades, economic growth should enable East Asia, Southeast Asia, Latin America to solve their water supply and sanitation problems and thankfully water-related mortality will be a thing of the past in these regions. The remaining challenges are going be to be in South Asia and Sub-Saharan Africa, but even here childhood diarrhea and mortality rates are falling rapidly.    However, the economic benefits from investments in water and sanitation infrastructure consist of both health and nonhealth outcomes, and Denis has just described some of the nonhealth outcomes in Singapore. There is a shift occurring in the relative magnitude of these two components with the health benefits declining and the nonhealth benefits, such as time savings, increasing.    The nonhealth related benefits of improved water services vary depending on location, but they can be surprisingly large and are often increasing. For example, in a recent study conducted in Kathmandu, Nepal, researchers at the Institute of Water Policy at the National University of Singapore found that from 2001 to 2014 the real cost after adjusting for inflation that households were incurring coping with water shortages and intermittent contaminated supplies actually doubled from $7 a month to $14 a month on average. These coping costs include the value of time spent collecting water from outside the home, investments in water storage, in-house water treatment, and expenditures to water vendors, all of which most Americans never experience.    Investments in improved water services that reduce or eliminate these coping costs free up a household's time, just as John just mentioned, and money for other priorities and increase economic growth. It is really hard for an urban economy to function efficiently if everyone is worried about getting home from work to meet a tanker truck in order to have sufficient water for a week.    I think that this shift from health to nonhealth benefits has important implications for donor assistance in the WASH sector. In places where coping costs are high, one can be confident that the economic benefits of improved water supplies will also be very high. But the coping costs are not high everywhere, and careful economic analysis of water and sanitation infrastructure projects is needed to ensure that assistance is targeted to communities where it will have the greatest economic impact. This will also go a large way to reducing conflict. The best way to avoid conflict is for a country to get on a high-growth development path.    My second point is that the world's population is becoming increasingly urbanized and the largest economic benefits of improved water and sanitation infrastructure usually will be in cities in developing countries. So if the objective is to promote economic growth, then it is important to prioritize investments in urban areas.    Large economic benefits can be obtained not only from infrastructure investment, but also from policy reforms. Utilities in cities in low- and middle-income countries almost always provide water and sanitation services to customers far below cost. They rely on subsidies from higher-level governments and donors to pay these subsidies. And recent research has shown that these subsidies are very poorly targeted. The majority don't reach poor households.    For my third point I want to shift from the economic benefits of water and sanitation investments to the relationship between water and conflict on international rivers. I know this subcommittee has heard from Paul Sullivan and his testimony on the implications of the Grand Renaissance Dam in Ethiopia. However, I have been studying and writing about the Nile for almost 40 years, and I would be happy to answer any further questions you have about the situation that is emerging on the Nile. I would like to just say a few last things and comments on that situation.    The construction of the Grand Ethiopian Renaissance Dam started in 2011 on the Blue Nile near the Ethiopian-Sudanese border. It is now about 40 percent complete. When it is finished the Nile riparians and the global community will face a new situation in transboundary hydropolitics. There will be two very large dams, the Aswan High Dam and the GERD, with over-year storage capacity on the same river in different countries in a water-scarce basin, and there is presently no plan for coordinating the operation of those large storage facilities.    In my judgment, the Nile riparians need assistance from the international community immediately in reaching a fair, equitable agreement on the joint operation of the Aswan High Dam and the GERD based on best global practices. This is a matter of urgency. Ethiopia will likely begin filling the GERD in 2016, just next year.    So in summary, I have four recommendations. First, in order to promote economic growth, assistance in the water supply and sanitation sector should be focused on South Asia and Sub-Saharan African cities.    Second, if USAID wants water and sanitation investments with high economic returns, it should assist countries to do the economic analysis to identify where economic returns will be greatest. President Reagan's Executive Order 12291 required that all major regulations in the United States pass a cost-benefit test. Why not have USAID assistance to the water sector pass a similar test?    Third, the United States Agency for International Development's global water coordinator and the Department of State's special advisor for water resources should give high priority to the reform of municipal water pricing and tariffs in developing countries and to improve the targeting of available subsidies to poor households.    And finally, fourth, the United States Department of State should encourage international organizations such as the World Bank to reengage in the Nile mission. As I said, this is a matter of urgency for the international community.    Thank you very much.</t>
   </si>
   <si>
@@ -103,6 +127,12 @@
     <t>412672</t>
   </si>
   <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Donovan. No, Mr. Chairman. Thank you very much.</t>
   </si>
   <si>
@@ -251,6 +281,12 @@
   </si>
   <si>
     <t>412604</t>
+  </si>
+  <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming today. I have got two questions or comments that I would like you all to respond to, so I will throw them out one at a time.    So my district is--the southern tip is Marco Island. I have got the west tip of the Everglades, go up north along the coast, Naples, Bonita Springs, Fort Myers, Cabbage Key, great place. I think I have got the best district of all--wonderful, welcoming people, and I love it there. That is another conversation.    I am always concerned about diseases from mosquitos that come from water because we don't do well with drainage and pooling. And I am worried about that personally because I see chikungunya right around the corner. I see dengue fever right around the corner. It is all over the Caribbean, as far south as Brazil. And it just feels like it is knocking on our door and it is just a question of time.    And I am always worried about how we do with--you know, when I drive around my district, I am looking at a lot of pooling water and I compare that to the developing world where they don't do anything, particularly if it is a bad rainy season. And then you have 10 percent of the population of the world gets dengue fever; chikungunya is blowing up everywhere. We have this conversation today and until now I don't think anybody has even brought it up.    And I think of Southeast Asia and the rainy seasons there, and India. And, look, I am all with you on toilets and wells, but it feels like the global conversation about water sanitation and usability is behind the curve with respect to mosquitos because we beat malaria, which is a nocturnal, rural problem, and now we have chikungunya and dengue fever which is an urban, daytime problem.    So that is number one. Do we, as a country and as a globe, do we do any work on that?    The second thing is to Mr. Oldfield's comments, my experience in development in South America and Southeast Asia is that if folks are at risk a little bit, skin in the game--on the well or on the toilet, the septic system--however basic it is, that they tend to keep it up more. And that a lot of the 500,000 that are dying every year--I am a lot more open-minded to spending taxpayer money if the end user has skin in the game.    And that is not a conservative's way of saying I don't want to help, because we have all spent a big chunk of our life trying to help. But if the model makes everyone in the supply chain have skin in the game, then I think what I have seen is that we have better usage of the money.    So I would just ask you all's quick response to my two comments. First of all, if you think I am all wet on the mosquito thing, just tell me right up. And then, Mr. Oldfield, you can comment on the other one.</t>
@@ -644,7 +680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,1901 +710,2177 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>19</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>19</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
       <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>89</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>89</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G73" t="s">
+        <v>89</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G75" t="s">
+        <v>89</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G77" t="s">
+        <v>89</v>
+      </c>
       <c r="H77" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>23</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G79" t="s">
+        <v>89</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>23</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96049.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96049.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>400380</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -125,6 +131,9 @@
   </si>
   <si>
     <t>412672</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Donovan</t>
@@ -680,7 +689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,7 +697,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,2174 +722,2292 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>32</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H59" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>35</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>35</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G77" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G79" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>105</v>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
